--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/OpeningStocks.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/OpeningStocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="170">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -530,17 +530,9 @@
     <t>n</t>
   </si>
   <si>
-    <t>Message
-Voucher saved successfully</t>
-  </si>
-  <si>
     <t>2581.25</t>
   </si>
   <si>
-    <t>Error
-There should be atleast one row entered.</t>
-  </si>
-  <si>
     <t>1311.8</t>
   </si>
   <si>
@@ -562,31 +554,28 @@
     <t>Pass</t>
   </si>
   <si>
+    <t xml:space="preserve">Application menu names are: Home, Financials, Inventory, Fixed Asset, Production, Point of Sale, Quality Control, Settings, </t>
+  </si>
+  <si>
+    <t>(Gross)</t>
+  </si>
+  <si>
     <t>Blocked</t>
   </si>
   <si>
-    <t xml:space="preserve">Application menu names are: Home, Financials, Inventory, Fixed Asset, Production, Point of Sale, Quality Control, Settings, </t>
-  </si>
-  <si>
-    <t>AUTO110918</t>
-  </si>
-  <si>
-    <t>(Gross)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>0.0</t>
+    <t>Voucher saved successfully</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>2012.5</t>
-  </si>
-  <si>
-    <t>980.0</t>
+    <t xml:space="preserve">Application menu names are: </t>
   </si>
 </sst>
 </file>
@@ -642,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="882">
+  <fills count="927">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +754,791 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
@@ -961,96 +1735,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1061,16 +1745,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1081,6 +1755,256 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1131,6 +2055,396 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1271,6 +2585,1056 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1301,6 +3665,756 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1327,2906 +4441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -5115,7 +5329,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="507">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
@@ -5182,19 +5396,19 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="10" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="13" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="12" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
@@ -5203,7 +5417,6 @@
     <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5213,434 +5426,457 @@
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="699" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="701" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="703" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="705" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="707" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="709" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="711" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="713" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="715" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="723" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="833" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="835" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="837" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="839" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="841" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="843" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="845" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="847" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="849" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="851" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="853" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="855" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="857" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="859" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="861" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="863" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="865" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="867" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="869" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="871" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="873" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="875" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="877" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="879" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="881" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="382" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="384" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="386" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="388" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="390" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="392" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="394" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="396" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="398" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="400" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="402" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="404" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="406" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="408" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="410" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="412" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="414" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="416" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="418" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="420" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="422" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="424" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="426" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="428" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="430" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="432" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="434" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="436" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="438" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="440" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="442" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="444" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="446" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="448" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="450" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="452" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="454" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="456" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="458" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="460" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="462" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="464" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="466" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="468" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="470" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="472" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="474" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="476" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="478" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="480" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="482" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="484" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="486" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="488" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="490" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="492" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="494" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="496" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="498" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="500" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="502" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="504" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="506" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="508" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="510" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="512" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="514" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="516" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="518" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="520" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="522" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="524" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="526" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="528" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="530" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="532" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="534" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="536" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="538" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="540" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="542" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="544" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="546" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="548" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="550" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="552" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="554" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="556" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="558" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="560" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="562" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="564" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="566" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="568" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="570" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="572" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="574" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="576" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="578" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="580" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="582" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="584" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="586" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="588" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="590" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="592" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="594" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="596" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="598" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="600" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="602" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="604" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="606" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="608" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="610" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="612" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="614" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="616" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="618" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="620" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="622" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="624" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="626" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="628" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="630" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="632" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="634" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="636" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="638" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="640" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="642" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="644" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="646" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="648" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="650" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="652" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="654" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="656" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="658" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="660" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="662" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="664" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="666" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="668" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="670" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="672" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="674" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="676" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="678" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="680" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="682" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="684" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="686" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="688" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="690" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="692" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="694" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="696" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="698" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="700" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="702" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="704" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="706" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="708" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="710" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="712" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="714" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="716" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="718" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="720" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="722" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="724" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="726" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="728" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="730" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="732" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="734" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="736" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="738" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="740" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="742" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="744" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="746" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="748" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="750" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="752" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="754" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="756" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="758" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="760" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="762" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="764" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="766" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="768" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="770" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="772" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="774" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="776" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="778" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="780" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="782" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="784" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="786" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="788" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="790" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="792" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="794" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="796" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="798" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="800" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="802" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="804" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="806" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="808" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="810" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="812" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="814" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="816" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="818" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="820" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="822" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="824" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="826" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="828" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="830" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="832" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="834" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="836" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="838" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="840" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="842" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="844" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="846" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="848" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="850" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="852" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="854" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="856" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="858" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="860" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="862" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="864" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="866" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="868" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="870" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="872" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="874" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="876" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="878" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="880" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="882" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="884" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="886" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="888" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="890" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="892" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="894" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="896" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="898" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="900" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="902" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="904" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="906" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="908" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="910" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="912" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="914" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="916" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="918" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="920" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="922" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="924" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="926" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5952,7 +6188,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,10 +6235,10 @@
         <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="465" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D3" s="487" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,10 +6249,10 @@
         <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="468" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D4" s="490" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,17 +6263,17 @@
         <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="471" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D5" s="493" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -6051,7 +6287,7 @@
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="3" t="s">
         <v>153</v>
       </c>
@@ -6063,7 +6299,7 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="3" t="s">
         <v>153</v>
       </c>
@@ -6079,10 +6315,10 @@
         <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="474" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D9" s="496" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,10 +6329,10 @@
         <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="477" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D10" s="499" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6343,10 @@
         <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="479" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D11" s="501" t="s">
+        <v>161</v>
       </c>
     </row>
     <row ht="30" r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6121,10 +6357,10 @@
         <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="482" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D12" s="504" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,10 +6371,10 @@
         <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" t="s" s="484">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="D13" t="s" s="506">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6166,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,8 +6479,8 @@
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="463" t="s">
-        <v>163</v>
+      <c r="D3" s="485" t="s">
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -6256,7 +6492,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -6271,8 +6507,8 @@
       <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="464" t="s">
-        <v>163</v>
+      <c r="D4" s="486" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>63</v>
@@ -6281,7 +6517,7 @@
         <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6297,8 +6533,8 @@
       <c r="C5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="466" t="s">
-        <v>163</v>
+      <c r="D5" s="488" t="s">
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>64</v>
@@ -6329,8 +6565,8 @@
       <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="467" t="s">
-        <v>163</v>
+      <c r="D6" s="489" t="s">
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>95</v>
@@ -6353,8 +6589,8 @@
       <c r="C7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="469" t="s">
-        <v>163</v>
+      <c r="D7" s="491" t="s">
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -6375,8 +6611,8 @@
       <c r="C8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="470" t="s">
-        <v>163</v>
+      <c r="D8" s="492" t="s">
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>105</v>
@@ -6470,7 +6706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6529,8 +6765,8 @@
       <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="473" t="s">
-        <v>163</v>
+      <c r="D2" s="495" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -6543,7 +6779,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -6589,8 +6825,8 @@
       <c r="C4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="472" t="s">
-        <v>163</v>
+      <c r="D4" s="494" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>59</v>
@@ -6603,10 +6839,10 @@
         <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6921,8 +7157,8 @@
       <c r="C2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="476" t="s">
-        <v>163</v>
+      <c r="D2" s="498" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -6935,7 +7171,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -6981,24 +7217,24 @@
       <c r="C4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="475" t="s">
-        <v>163</v>
+      <c r="D4" s="497" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row customFormat="1" r="5" s="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7351,8 +7587,8 @@
       <c r="C2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="478" t="s">
-        <v>163</v>
+      <c r="D2" s="500" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -7362,10 +7598,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -7730,8 +7966,8 @@
       <c r="C2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="481" t="s">
-        <v>163</v>
+      <c r="D2" s="503" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -7744,7 +7980,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -7790,8 +8026,8 @@
       <c r="C4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="480" t="s">
-        <v>163</v>
+      <c r="D4" s="502" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>59</v>
@@ -7804,10 +8040,10 @@
         <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8125,8 +8361,8 @@
       <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="483" t="s">
-        <v>163</v>
+      <c r="D2" s="505" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
